--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohanchoudhary\eclipse-workspace\ExitTestFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509231F3-F2CE-4B80-8D78-B2946E549707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726450D-6EE3-48C1-9557-E58DE4BAB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="715" xr2:uid="{02AD3AE7-6A88-47E3-9E5D-ED498377BB2E}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7EE14A-5AE0-421A-B649-467E71525A57}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B2:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohanchoudhary\eclipse-workspace\ExitTestFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726450D-6EE3-48C1-9557-E58DE4BAB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263BD60-E5A0-445C-814C-FA392C7B3268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="715" xr2:uid="{02AD3AE7-6A88-47E3-9E5D-ED498377BB2E}"/>
   </bookViews>
@@ -591,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7EE14A-5AE0-421A-B649-467E71525A57}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohanchoudhary\eclipse-workspace\ExitTestFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263BD60-E5A0-445C-814C-FA392C7B3268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392C472-3B1A-48CF-A431-F4DA7F9CECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="715" xr2:uid="{02AD3AE7-6A88-47E3-9E5D-ED498377BB2E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>TestCase</t>
   </si>
@@ -150,45 +150,21 @@
     <t>mobileInvalid</t>
   </si>
   <si>
-    <t>InvalidAgentRegistrationTest</t>
-  </si>
-  <si>
     <t>InvalidMobileAppLink</t>
   </si>
   <si>
     <t>ValidMobileAppLink</t>
   </si>
   <si>
-    <t>busHire</t>
-  </si>
-  <si>
     <t>careerLinkedIn</t>
   </si>
   <si>
     <t>ContactUsPhone</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>careerHiristLink</t>
   </si>
   <si>
-    <t>FaqPageTest</t>
-  </si>
-  <si>
-    <t>SingaporeSiteTest</t>
-  </si>
-  <si>
-    <t>ColombiaSiteTest</t>
-  </si>
-  <si>
-    <t>homePageSearchTest</t>
-  </si>
-  <si>
-    <t>busTicketPageMenuTest</t>
-  </si>
-  <si>
     <t>ValidLogin</t>
   </si>
   <si>
@@ -213,9 +189,6 @@
     <t>OperatorSearchBusDifferentName</t>
   </si>
   <si>
-    <t>privacyLinkTest</t>
-  </si>
-  <si>
     <t>androidAppLink</t>
   </si>
   <si>
@@ -226,6 +199,30 @@
   </si>
   <si>
     <t>twitterCheck</t>
+  </si>
+  <si>
+    <t>InvalidAgentRegistration</t>
+  </si>
+  <si>
+    <t>ContactUsSupport</t>
+  </si>
+  <si>
+    <t>FaqPage</t>
+  </si>
+  <si>
+    <t>SingaporeSite</t>
+  </si>
+  <si>
+    <t>ColombiaSite</t>
+  </si>
+  <si>
+    <t>homePageSearch</t>
+  </si>
+  <si>
+    <t>busTicketPageMenu</t>
+  </si>
+  <si>
+    <t>privacyLink</t>
   </si>
 </sst>
 </file>
@@ -589,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7EE14A-5AE0-421A-B649-467E71525A57}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +608,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -619,7 +616,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -627,7 +624,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -643,7 +640,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -651,7 +648,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -659,7 +656,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -667,7 +664,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -675,7 +672,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -683,7 +680,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -699,7 +696,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -707,7 +704,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -715,7 +712,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -731,7 +728,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -739,7 +736,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -747,7 +744,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -755,7 +752,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -763,7 +760,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -771,7 +768,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -779,7 +776,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -787,7 +784,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -795,7 +792,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -803,7 +800,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -811,17 +808,9 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohanchoudhary\eclipse-workspace\ExitTestFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392C472-3B1A-48CF-A431-F4DA7F9CECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D44FBB-E079-420B-B33B-035DB2368D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="715" xr2:uid="{02AD3AE7-6A88-47E3-9E5D-ED498377BB2E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>TestCase</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>privacyLink</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +614,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +622,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +630,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +638,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +646,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +662,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +670,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +678,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +686,7 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +694,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +702,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +782,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +790,7 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +798,7 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +806,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +814,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -824,12 +827,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohanchoudhary\eclipse-workspace\ExitTestFin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D44FBB-E079-420B-B33B-035DB2368D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A686992-AB3A-40CB-A9CC-52629A38CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="715" xr2:uid="{02AD3AE7-6A88-47E3-9E5D-ED498377BB2E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>TestCase</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>privacyLink</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -592,7 +589,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +611,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +619,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,7 +627,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -638,7 +635,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,7 +643,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +651,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +659,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -670,7 +667,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +675,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +683,7 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +691,7 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +699,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -718,7 +715,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +723,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +731,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +755,7 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +763,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +771,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +779,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +787,7 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +795,7 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +803,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +811,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
